--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Jag1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Jag1-Notch3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.636417666666667</v>
+        <v>11.190867</v>
       </c>
       <c r="H2">
-        <v>22.909253</v>
+        <v>33.572601</v>
       </c>
       <c r="I2">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="J2">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.847498666666667</v>
+        <v>7.413580666666667</v>
       </c>
       <c r="N2">
-        <v>14.542496</v>
+        <v>22.240742</v>
       </c>
       <c r="O2">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="P2">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="Q2">
-        <v>37.01752445727644</v>
+        <v>82.964395234438</v>
       </c>
       <c r="R2">
-        <v>333.157720115488</v>
+        <v>746.679557109942</v>
       </c>
       <c r="S2">
-        <v>0.003690833370943947</v>
+        <v>0.00773493960168908</v>
       </c>
       <c r="T2">
-        <v>0.003690833370943947</v>
+        <v>0.007734939601689079</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.636417666666667</v>
+        <v>11.190867</v>
       </c>
       <c r="H3">
-        <v>22.909253</v>
+        <v>33.572601</v>
       </c>
       <c r="I3">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="J3">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.88128</v>
       </c>
       <c r="O3">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="P3">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="Q3">
-        <v>12.42516427598222</v>
+        <v>18.20858508992</v>
       </c>
       <c r="R3">
-        <v>111.82647848384</v>
+        <v>163.87726580928</v>
       </c>
       <c r="S3">
-        <v>0.001238851371657332</v>
+        <v>0.00169762348661447</v>
       </c>
       <c r="T3">
-        <v>0.001238851371657333</v>
+        <v>0.00169762348661447</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.636417666666667</v>
+        <v>11.190867</v>
       </c>
       <c r="H4">
-        <v>22.909253</v>
+        <v>33.572601</v>
       </c>
       <c r="I4">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="J4">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>408.212212</v>
       </c>
       <c r="O4">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="P4">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="Q4">
-        <v>1039.092982488626</v>
+        <v>1522.749524089268</v>
       </c>
       <c r="R4">
-        <v>9351.836842397637</v>
+        <v>13704.74571680341</v>
       </c>
       <c r="S4">
-        <v>0.1036027965540747</v>
+        <v>0.1419690406233703</v>
       </c>
       <c r="T4">
-        <v>0.1036027965540747</v>
+        <v>0.1419690406233703</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>45.31015499999999</v>
       </c>
       <c r="I5">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="J5">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.847498666666667</v>
+        <v>7.413580666666667</v>
       </c>
       <c r="N5">
-        <v>14.542496</v>
+        <v>22.240742</v>
       </c>
       <c r="O5">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="P5">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="Q5">
-        <v>73.21363864965332</v>
+        <v>111.9701630372233</v>
       </c>
       <c r="R5">
-        <v>658.9227478468799</v>
+        <v>1007.73146733501</v>
       </c>
       <c r="S5">
-        <v>0.007299768007129814</v>
+        <v>0.01043920643110644</v>
       </c>
       <c r="T5">
-        <v>0.007299768007129815</v>
+        <v>0.01043920643110644</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>45.31015499999999</v>
       </c>
       <c r="I6">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="J6">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.88128</v>
       </c>
       <c r="O6">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="P6">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="Q6">
         <v>24.57461704426667</v>
@@ -818,10 +818,10 @@
         <v>221.1715533984</v>
       </c>
       <c r="S6">
-        <v>0.002450212919284463</v>
+        <v>0.002291141616050006</v>
       </c>
       <c r="T6">
-        <v>0.002450212919284463</v>
+        <v>0.002291141616050006</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>45.31015499999999</v>
       </c>
       <c r="I7">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="J7">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>408.212212</v>
       </c>
       <c r="O7">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="P7">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="Q7">
         <v>2055.128733179206</v>
@@ -880,10 +880,10 @@
         <v>18496.15859861286</v>
       </c>
       <c r="S7">
-        <v>0.2049066711297217</v>
+        <v>0.1916038389711362</v>
       </c>
       <c r="T7">
-        <v>0.2049066711297217</v>
+        <v>0.1916038389711361</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>47.62086333333334</v>
+        <v>47.62086333333333</v>
       </c>
       <c r="H8">
         <v>142.86259</v>
       </c>
       <c r="I8">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="J8">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.847498666666667</v>
+        <v>7.413580666666667</v>
       </c>
       <c r="N8">
-        <v>14.542496</v>
+        <v>22.240742</v>
       </c>
       <c r="O8">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="P8">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="Q8">
-        <v>230.8420715138489</v>
+        <v>353.0411117379755</v>
       </c>
       <c r="R8">
-        <v>2077.57864362464</v>
+        <v>3177.37000564178</v>
       </c>
       <c r="S8">
-        <v>0.0230161155683026</v>
+        <v>0.0329147421431801</v>
       </c>
       <c r="T8">
-        <v>0.0230161155683026</v>
+        <v>0.0329147421431801</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>47.62086333333334</v>
+        <v>47.62086333333333</v>
       </c>
       <c r="H9">
         <v>142.86259</v>
       </c>
       <c r="I9">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="J9">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>4.88128</v>
       </c>
       <c r="O9">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="P9">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="Q9">
-        <v>77.48358925724446</v>
+        <v>77.48358925724445</v>
       </c>
       <c r="R9">
-        <v>697.3523033152001</v>
+        <v>697.3523033151999</v>
       </c>
       <c r="S9">
-        <v>0.007725503558759386</v>
+        <v>0.007223952893687726</v>
       </c>
       <c r="T9">
-        <v>0.007725503558759386</v>
+        <v>0.007223952893687726</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>47.62086333333334</v>
+        <v>47.62086333333333</v>
       </c>
       <c r="H10">
         <v>142.86259</v>
       </c>
       <c r="I10">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="J10">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>408.212212</v>
       </c>
       <c r="O10">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="P10">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="Q10">
-        <v>6479.805986216566</v>
+        <v>6479.805986216564</v>
       </c>
       <c r="R10">
-        <v>58318.25387594909</v>
+        <v>58318.25387594908</v>
       </c>
       <c r="S10">
-        <v>0.6460692475201261</v>
+        <v>0.6041255142331657</v>
       </c>
       <c r="T10">
-        <v>0.6460692475201261</v>
+        <v>0.6041255142331657</v>
       </c>
     </row>
   </sheetData>
